--- a/tepelnyodpor.xlsx
+++ b/tepelnyodpor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cypoo\Saves\AutoCAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C46EB98-6B20-4EBC-8225-529D025C7183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4077D64F-BCC7-4486-9471-F4DCCA5D6F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4137FBF-8985-4AAC-BF56-64E7AB45BC92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4137FBF-8985-4AAC-BF56-64E7AB45BC92}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Obvodová stena</t>
   </si>
@@ -86,6 +86,48 @@
   <si>
     <t>ΣR</t>
   </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 6.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R &gt; R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +137,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +153,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -220,11 +270,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -237,12 +298,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -557,19 +621,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A241D57B-A1EA-4A36-8C86-3795152A465F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
+    <col min="2" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -583,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -598,7 +662,7 @@
         <v>5.3846153846153842E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -613,7 +677,7 @@
         <v>6.4935064935064934</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -628,13 +692,27 @@
         <v>6.1538461538461535E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="10">
         <f>SUM(D2:D4)</f>
         <v>6.6088911088911084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="str">
+        <f>ROUND(D5, 4)&amp;" &gt; 6.5"</f>
+        <v>6.6089 &gt; 6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
